--- a/xlsx/country_comparison/top_tax_affected_share_various.xlsx
+++ b/xlsx/country_comparison/top_tax_affected_share_various.xlsx
@@ -60,7 +60,7 @@
 (Any variant)</t>
   </si>
   <si>
-    <t xml:space="preserve">Affected by the (variant faced of the) top tax</t>
+    <t xml:space="preserve">Affected by the top tax (any variant)</t>
   </si>
   <si>
     <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
@@ -455,43 +455,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.53137953527131</v>
+        <v>0.691929415029113</v>
       </c>
       <c r="C2" t="n">
         <v>0.613475250910703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.788538992093469</v>
+        <v>0.603703220268837</v>
       </c>
       <c r="E2" t="n">
-        <v>0.456190332054589</v>
+        <v>0.607918524592189</v>
       </c>
       <c r="F2" t="n">
-        <v>0.863525987560323</v>
+        <v>0.648494886402136</v>
       </c>
       <c r="G2" t="n">
-        <v>0.500997266398559</v>
+        <v>0.455066177183276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.384472725105778</v>
+        <v>0.543499856186662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.608282672292323</v>
+        <v>0.708646183557799</v>
       </c>
       <c r="J2" t="n">
-        <v>0.502563231256652</v>
+        <v>0.31975439937494</v>
       </c>
       <c r="K2" t="n">
-        <v>0.560199350967105</v>
+        <v>0.448205923874743</v>
       </c>
       <c r="L2" t="n">
-        <v>0.560199350967105</v>
+        <v>0.755358410985165</v>
       </c>
       <c r="M2" t="n">
-        <v>0.777246316640066</v>
+        <v>0.792051293487645</v>
       </c>
       <c r="N2" t="n">
-        <v>0.511387764514654</v>
+        <v>0.431282558556951</v>
       </c>
     </row>
     <row r="3">
@@ -541,43 +541,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.611907037157512</v>
+        <v>0.741531962356</v>
       </c>
       <c r="C4" t="n">
         <v>0.695072833809728</v>
       </c>
       <c r="D4" t="n">
-        <v>0.928845846991093</v>
+        <v>0.801203031254241</v>
       </c>
       <c r="E4" t="n">
-        <v>0.455234037906956</v>
+        <v>0.645129138499509</v>
       </c>
       <c r="F4" t="n">
-        <v>0.723888472317317</v>
+        <v>0.768864157531387</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.638361679043372</v>
+        <v>0.595169320047074</v>
       </c>
       <c r="I4" t="n">
-        <v>0.575877358379803</v>
+        <v>0.651843166585281</v>
       </c>
       <c r="J4" t="n">
-        <v>0.795229367825025</v>
+        <v>0.560156153660381</v>
       </c>
       <c r="K4" t="n">
-        <v>0.894494254304297</v>
+        <v>0.672382442642603</v>
       </c>
       <c r="L4" t="n">
-        <v>0.894494254304297</v>
+        <v>0.755358410985165</v>
       </c>
       <c r="M4" t="n">
-        <v>0.733041870381165</v>
+        <v>0.761526646392122</v>
       </c>
       <c r="N4" t="n">
-        <v>0.560845027701502</v>
+        <v>0.508770713830114</v>
       </c>
     </row>
     <row r="5">
@@ -591,35 +591,35 @@
         <v>0.0228809019118487</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0168076927398806</v>
+        <v>0.0152772811251959</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0156399541396257</v>
+        <v>0.0158159265407275</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0379209062301266</v>
+        <v>0.0364460596482764</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00539414658045392</v>
+        <v>0.00635212756481645</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0135134355442693</v>
+        <v>0.013703147356521</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0387987232432794</v>
+        <v>0.0382299828227781</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06987857565294</v>
+        <v>0.0699523880243387</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0191985328268543</v>
+        <v>0.0195161254114759</v>
       </c>
       <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.132205913258965</v>
+        <v>0.136800251123575</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0409323300541326</v>
+        <v>0.0397521568871045</v>
       </c>
     </row>
     <row r="6">
@@ -627,43 +627,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.501597221740384</v>
+        <v>0.698554325701683</v>
       </c>
       <c r="C6" t="n">
         <v>0.579728653424148</v>
       </c>
       <c r="D6" t="n">
-        <v>0.71960399052414</v>
+        <v>0.546916877394537</v>
       </c>
       <c r="E6" t="n">
-        <v>0.652316414903512</v>
+        <v>0.587874617065976</v>
       </c>
       <c r="F6" t="n">
-        <v>0.756814942330266</v>
+        <v>0.564037238942986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.434789042286224</v>
+        <v>0.317062120727541</v>
       </c>
       <c r="H6" t="n">
-        <v>0.419813990857039</v>
+        <v>0.525233499401515</v>
       </c>
       <c r="I6" t="n">
-        <v>0.633967405902735</v>
+        <v>0.728201351233681</v>
       </c>
       <c r="J6" t="n">
-        <v>0.243486562669564</v>
+        <v>0.222272605448298</v>
       </c>
       <c r="K6" t="n">
-        <v>0.553949075919076</v>
+        <v>0.376772339253702</v>
       </c>
       <c r="L6" t="n">
-        <v>0.553949075919076</v>
+        <v>0.755358410985165</v>
       </c>
       <c r="M6" t="n">
-        <v>0.802396303364366</v>
+        <v>0.805055370644748</v>
       </c>
       <c r="N6" t="n">
-        <v>0.445117407038057</v>
+        <v>0.405011051620345</v>
       </c>
     </row>
     <row r="7">
@@ -677,35 +677,35 @@
         <v>0.058871310106645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0460874543518805</v>
+        <v>0.0497557537097689</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0411657855802637</v>
+        <v>0.0381284684121215</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0660744172057993</v>
+        <v>0.0651357948522902</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0231861533967205</v>
+        <v>0.0243920108908461</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0483308966472912</v>
+        <v>0.0494954076529742</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0953377939181177</v>
+        <v>0.0998345665218679</v>
       </c>
       <c r="J7" t="n">
-        <v>0.165895078203565</v>
+        <v>0.160672303258471</v>
       </c>
       <c r="K7" t="n">
-        <v>0.042539129854292</v>
+        <v>0.0400180177711981</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.294709996866589</v>
+        <v>0.282886812048479</v>
       </c>
       <c r="N7" t="n">
-        <v>0.113010172525853</v>
+        <v>0.113725803486659</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/top_tax_affected_share_various.xlsx
+++ b/xlsx/country_comparison/top_tax_affected_share_various.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -446,16 +443,13 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.691929415029113</v>
+        <v>0.53137953527131</v>
       </c>
       <c r="C2" t="n">
         <v>0.613475250910703</v>
@@ -485,18 +479,15 @@
         <v>0.448205923874743</v>
       </c>
       <c r="L2" t="n">
-        <v>0.755358410985165</v>
+        <v>0.792051293487645</v>
       </c>
       <c r="M2" t="n">
-        <v>0.792051293487645</v>
-      </c>
-      <c r="N2" t="n">
         <v>0.431282558556951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>0.0591524213077198</v>
@@ -528,20 +519,19 @@
       <c r="K3" t="n">
         <v>0.0300920300421565</v>
       </c>
-      <c r="L3"/>
+      <c r="L3" t="n">
+        <v>0.213457131326528</v>
+      </c>
       <c r="M3" t="n">
-        <v>0.213457131326528</v>
-      </c>
-      <c r="N3" t="n">
         <v>0.0779223306659385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.741531962356</v>
+        <v>0.611907037157512</v>
       </c>
       <c r="C4" t="n">
         <v>0.695072833809728</v>
@@ -571,18 +561,15 @@
         <v>0.672382442642603</v>
       </c>
       <c r="L4" t="n">
-        <v>0.755358410985165</v>
+        <v>0.761526646392122</v>
       </c>
       <c r="M4" t="n">
-        <v>0.761526646392122</v>
-      </c>
-      <c r="N4" t="n">
         <v>0.508770713830114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>0.0324192263079185</v>
@@ -614,20 +601,19 @@
       <c r="K5" t="n">
         <v>0.0195161254114759</v>
       </c>
-      <c r="L5"/>
+      <c r="L5" t="n">
+        <v>0.136800251123575</v>
+      </c>
       <c r="M5" t="n">
-        <v>0.136800251123575</v>
-      </c>
-      <c r="N5" t="n">
         <v>0.0397521568871045</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.698554325701683</v>
+        <v>0.501597221740384</v>
       </c>
       <c r="C6" t="n">
         <v>0.579728653424148</v>
@@ -657,18 +643,15 @@
         <v>0.376772339253702</v>
       </c>
       <c r="L6" t="n">
-        <v>0.755358410985165</v>
+        <v>0.805055370644748</v>
       </c>
       <c r="M6" t="n">
-        <v>0.805055370644748</v>
-      </c>
-      <c r="N6" t="n">
         <v>0.405011051620345</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>0.085037992635904</v>
@@ -700,11 +683,10 @@
       <c r="K7" t="n">
         <v>0.0400180177711981</v>
       </c>
-      <c r="L7"/>
+      <c r="L7" t="n">
+        <v>0.282886812048479</v>
+      </c>
       <c r="M7" t="n">
-        <v>0.282886812048479</v>
-      </c>
-      <c r="N7" t="n">
         <v>0.113725803486659</v>
       </c>
     </row>

--- a/xlsx/country_comparison/top_tax_affected_share_various.xlsx
+++ b/xlsx/country_comparison/top_tax_affected_share_various.xlsx
@@ -455,13 +455,13 @@
         <v>0.613475250910703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.603703220268837</v>
+        <v>0.603703220268836</v>
       </c>
       <c r="E2" t="n">
         <v>0.607918524592189</v>
       </c>
       <c r="F2" t="n">
-        <v>0.648494886402136</v>
+        <v>0.648494886402137</v>
       </c>
       <c r="G2" t="n">
         <v>0.455066177183276</v>
